--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>36.60019986240585</v>
+        <v>42.31236117468667</v>
       </c>
       <c r="R2">
-        <v>36.60019986240585</v>
+        <v>253.87416704812</v>
       </c>
       <c r="S2">
-        <v>0.09304489358037363</v>
+        <v>0.0922405322625888</v>
       </c>
       <c r="T2">
-        <v>0.09304489358037363</v>
+        <v>0.07990977825278192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>102.7830156250255</v>
+        <v>117.3806819907133</v>
       </c>
       <c r="R3">
-        <v>102.7830156250255</v>
+        <v>1056.42613791642</v>
       </c>
       <c r="S3">
-        <v>0.2612946045828434</v>
+        <v>0.2558887351965237</v>
       </c>
       <c r="T3">
-        <v>0.2612946045828434</v>
+        <v>0.3325221285919294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>8.61708490866201</v>
+        <v>15.95248921107666</v>
       </c>
       <c r="R4">
-        <v>8.61708490866201</v>
+        <v>143.57240289969</v>
       </c>
       <c r="S4">
-        <v>0.02190632158604822</v>
+        <v>0.03477626998096291</v>
       </c>
       <c r="T4">
-        <v>0.02190632158604822</v>
+        <v>0.04519104488783492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>8.850424085262739</v>
+        <v>9.405240042573332</v>
       </c>
       <c r="R5">
-        <v>8.850424085262739</v>
+        <v>84.64716038315999</v>
       </c>
       <c r="S5">
-        <v>0.02249951558325498</v>
+        <v>0.02050333102430089</v>
       </c>
       <c r="T5">
-        <v>0.02249951558325498</v>
+        <v>0.0266436553769722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>134.6300484833947</v>
+        <v>10.10331966031222</v>
       </c>
       <c r="R6">
-        <v>134.6300484833947</v>
+        <v>90.92987694281</v>
       </c>
       <c r="S6">
-        <v>0.3422560144739764</v>
+        <v>0.02202513774258022</v>
       </c>
       <c r="T6">
-        <v>0.3422560144739764</v>
+        <v>0.02862121178983698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>1.646588176024467</v>
+        <v>146.42584443557</v>
       </c>
       <c r="R7">
-        <v>1.646588176024467</v>
+        <v>878.55506661342</v>
       </c>
       <c r="S7">
-        <v>0.004185950409693398</v>
+        <v>0.3192069043836814</v>
       </c>
       <c r="T7">
-        <v>0.004185950409693398</v>
+        <v>0.2765351881691435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>4.624053935785808</v>
+        <v>0.3685980735973334</v>
       </c>
       <c r="R8">
-        <v>4.624053935785808</v>
+        <v>2.211588441584</v>
       </c>
       <c r="S8">
-        <v>0.01175525292163847</v>
+        <v>0.0008035401843734306</v>
       </c>
       <c r="T8">
-        <v>0.01175525292163847</v>
+        <v>0.0006961225870606032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>0.3876697443113105</v>
+        <v>1.022544997682667</v>
       </c>
       <c r="R9">
-        <v>0.3876697443113105</v>
+        <v>9.202904979144002</v>
       </c>
       <c r="S9">
-        <v>0.0009855325992584756</v>
+        <v>0.0022291380634443</v>
       </c>
       <c r="T9">
-        <v>0.0009855325992584756</v>
+        <v>0.002896718893125623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>0.3981673243966229</v>
+        <v>0.1389678247453333</v>
       </c>
       <c r="R10">
-        <v>0.3981673243966229</v>
+        <v>1.250710422708</v>
       </c>
       <c r="S10">
-        <v>0.001012219508771574</v>
+        <v>0.0003029484946246002</v>
       </c>
       <c r="T10">
-        <v>0.001012219508771574</v>
+        <v>0.0003936753144249441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>6.056804247073495</v>
+        <v>0.08193240143466668</v>
       </c>
       <c r="R11">
-        <v>6.056804247073495</v>
+        <v>0.7373916129120001</v>
       </c>
       <c r="S11">
-        <v>0.01539758549747613</v>
+        <v>0.0001786118313436738</v>
       </c>
       <c r="T11">
-        <v>0.01539758549747613</v>
+        <v>0.0002321023874086817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>2.113853740881043</v>
+        <v>0.08801362203244446</v>
       </c>
       <c r="R12">
-        <v>2.113853740881043</v>
+        <v>0.7921225982920002</v>
       </c>
       <c r="S12">
-        <v>0.005373831211418491</v>
+        <v>0.0001918688325880483</v>
       </c>
       <c r="T12">
-        <v>0.005373831211418491</v>
+        <v>0.0002493295868363536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>5.936258897349995</v>
+        <v>1.275567769924</v>
       </c>
       <c r="R13">
-        <v>5.936258897349995</v>
+        <v>7.653406619544001</v>
       </c>
       <c r="S13">
-        <v>0.01509113555242672</v>
+        <v>0.002780725224693502</v>
       </c>
       <c r="T13">
-        <v>0.01509113555242672</v>
+        <v>0.002408996681140124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>0.4976819044197269</v>
+        <v>1.756227159670667</v>
       </c>
       <c r="R14">
-        <v>0.4976819044197269</v>
+        <v>10.537362958024</v>
       </c>
       <c r="S14">
-        <v>0.00126520510837908</v>
+        <v>0.003828557978913982</v>
       </c>
       <c r="T14">
-        <v>0.00126520510837908</v>
+        <v>0.003316754702281992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>0.5111584672036967</v>
+        <v>4.872031151409333</v>
       </c>
       <c r="R15">
-        <v>0.5111584672036967</v>
+        <v>43.848280362684</v>
       </c>
       <c r="S15">
-        <v>0.00129946517676061</v>
+        <v>0.01062098011383876</v>
       </c>
       <c r="T15">
-        <v>0.00129946517676061</v>
+        <v>0.01380174438891906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>7.77559228341638</v>
+        <v>0.6621278992486666</v>
       </c>
       <c r="R16">
-        <v>7.77559228341638</v>
+        <v>5.959151093238</v>
       </c>
       <c r="S16">
-        <v>0.01976708212672844</v>
+        <v>0.001443432324668869</v>
       </c>
       <c r="T16">
-        <v>0.01976708212672844</v>
+        <v>0.001875710506399071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>9.032250516989516</v>
+        <v>0.3903761819813333</v>
       </c>
       <c r="R17">
-        <v>9.032250516989516</v>
+        <v>3.513385637832</v>
       </c>
       <c r="S17">
-        <v>0.02296175406975828</v>
+        <v>0.0008510162470001194</v>
       </c>
       <c r="T17">
-        <v>0.02296175406975828</v>
+        <v>0.00110587804383598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>25.36494198138112</v>
+        <v>0.4193508444735555</v>
       </c>
       <c r="R18">
-        <v>25.36494198138112</v>
+        <v>3.774157600262</v>
       </c>
       <c r="S18">
-        <v>0.06448266228606388</v>
+        <v>0.0009141807269821618</v>
       </c>
       <c r="T18">
-        <v>0.06448266228606388</v>
+        <v>0.001187958981548617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>2.126536737881323</v>
+        <v>6.077586732014</v>
       </c>
       <c r="R19">
-        <v>2.126536737881323</v>
+        <v>36.465520392084</v>
       </c>
       <c r="S19">
-        <v>0.005406073879781169</v>
+        <v>0.0132490794526588</v>
       </c>
       <c r="T19">
-        <v>0.005406073879781169</v>
+        <v>0.01147793681525467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>2.184120519019378</v>
+        <v>2.715099657186667</v>
       </c>
       <c r="R20">
-        <v>2.184120519019378</v>
+        <v>16.29059794312</v>
       </c>
       <c r="S20">
-        <v>0.005552463156563487</v>
+        <v>0.00591889061664319</v>
       </c>
       <c r="T20">
-        <v>0.005552463156563487</v>
+        <v>0.005127650774303485</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.58338</v>
+      </c>
+      <c r="I21">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J21">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N21">
+        <v>26.240334</v>
+      </c>
+      <c r="O21">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P21">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q21">
+        <v>7.532083783213334</v>
+      </c>
+      <c r="R21">
+        <v>67.78875404892</v>
+      </c>
+      <c r="S21">
+        <v>0.01641986875517722</v>
+      </c>
+      <c r="T21">
+        <v>0.02133728046089392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.58338</v>
+      </c>
+      <c r="I22">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J22">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.188721</v>
+      </c>
+      <c r="N22">
+        <v>3.566163</v>
+      </c>
+      <c r="O22">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P22">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q22">
+        <v>1.023639352326667</v>
+      </c>
+      <c r="R22">
+        <v>9.21275417094</v>
+      </c>
+      <c r="S22">
+        <v>0.002231523745832239</v>
+      </c>
+      <c r="T22">
+        <v>0.002899819038136589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.58338</v>
+      </c>
+      <c r="I23">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J23">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.700844</v>
+      </c>
+      <c r="N23">
+        <v>2.102532</v>
+      </c>
+      <c r="O23">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P23">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q23">
+        <v>0.6035154575733334</v>
+      </c>
+      <c r="R23">
+        <v>5.431639118160001</v>
+      </c>
+      <c r="S23">
+        <v>0.00131565777682404</v>
+      </c>
+      <c r="T23">
+        <v>0.001709670119366781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.58338</v>
+      </c>
+      <c r="I24">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J24">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.258587</v>
+      </c>
+      <c r="O24">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P24">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q24">
+        <v>0.6483098315622223</v>
+      </c>
+      <c r="R24">
+        <v>5.834788484060001</v>
+      </c>
+      <c r="S24">
+        <v>0.001413309072672225</v>
+      </c>
+      <c r="T24">
+        <v>0.001836565962320793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.911117</v>
+      </c>
+      <c r="N25">
+        <v>21.822234</v>
+      </c>
+      <c r="O25">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P25">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q25">
+        <v>9.39585381182</v>
+      </c>
+      <c r="R25">
+        <v>56.37512287092</v>
+      </c>
+      <c r="S25">
+        <v>0.02048286913334065</v>
+      </c>
+      <c r="T25">
+        <v>0.01774471038140197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.152962</v>
+      </c>
+      <c r="N26">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P26">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q26">
+        <v>9.670218007493002</v>
+      </c>
+      <c r="R26">
+        <v>38.68087202997201</v>
+      </c>
+      <c r="S26">
+        <v>0.02108098038830447</v>
+      </c>
+      <c r="T26">
+        <v>0.01217524391110429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N27">
+        <v>26.240334</v>
+      </c>
+      <c r="O27">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P27">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q27">
+        <v>26.826599915617</v>
+      </c>
+      <c r="R27">
+        <v>160.959599493702</v>
+      </c>
+      <c r="S27">
+        <v>0.05848172463824589</v>
+      </c>
+      <c r="T27">
+        <v>0.05066386254557508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.188721</v>
+      </c>
+      <c r="N28">
+        <v>3.566163</v>
+      </c>
+      <c r="O28">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P28">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q28">
+        <v>3.645838808106499</v>
+      </c>
+      <c r="R28">
+        <v>21.875032848639</v>
+      </c>
+      <c r="S28">
+        <v>0.007947892834790167</v>
+      </c>
+      <c r="T28">
+        <v>0.006885415103600268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.700844</v>
+      </c>
+      <c r="N29">
+        <v>2.102532</v>
+      </c>
+      <c r="O29">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P29">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q29">
+        <v>2.149507120366</v>
+      </c>
+      <c r="R29">
+        <v>12.897042722196</v>
+      </c>
+      <c r="S29">
+        <v>0.004685904435023594</v>
+      </c>
+      <c r="T29">
+        <v>0.004059490715540169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H21">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I21">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J21">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="N21">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="O21">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="P21">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="Q21">
-        <v>33.22419903683371</v>
-      </c>
-      <c r="R21">
-        <v>33.22419903683371</v>
-      </c>
-      <c r="S21">
-        <v>0.08446243668878535</v>
-      </c>
-      <c r="T21">
-        <v>0.08446243668878535</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.258587</v>
+      </c>
+      <c r="O30">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P30">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q30">
+        <v>2.309048727185167</v>
+      </c>
+      <c r="R30">
+        <v>13.854292363111</v>
+      </c>
+      <c r="S30">
+        <v>0.005033703572733558</v>
+      </c>
+      <c r="T30">
+        <v>0.004360795914991888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.911117</v>
+      </c>
+      <c r="N31">
+        <v>21.822234</v>
+      </c>
+      <c r="O31">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P31">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q31">
+        <v>33.4646849836005</v>
+      </c>
+      <c r="R31">
+        <v>133.858739934402</v>
+      </c>
+      <c r="S31">
+        <v>0.07295268496464453</v>
+      </c>
+      <c r="T31">
+        <v>0.04213355911603011</v>
       </c>
     </row>
   </sheetData>
